--- a/FinalisationMappingPosologie/ig/PN13-FHIR-FreeSetCIODC-Voie-ConceptMap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-FreeSetCIODC-Voie-ConceptMap.xlsx
@@ -106,7 +106,7 @@
     <t>https://www.phast.fr/ciodm/|2025</t>
   </si>
   <si>
-    <t>https://www.edqm.eu/en/standard-terms-database</t>
+    <t>http://standardterms.edqm.eu</t>
   </si>
   <si>
     <t>12</t>
